--- a/biology/Zoologie/Acanthepeira_stellata/Acanthepeira_stellata.xlsx
+++ b/biology/Zoologie/Acanthepeira_stellata/Acanthepeira_stellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthepeira stellata est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthepeira stellata est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Canada, aux États-Unis et au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Canada, aux États-Unis et au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Levi en 1976 mesure 8,0 mm et la femelle 9,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Levi en 1976 mesure 8,0 mm et la femelle 9,0 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Walckenaer, 1805 : Tableau des aranéides ou caractères essentiels des tribus, genres, familles et races que renferme le genre Aranea de Linné, avec la désignation des espèces comprises dans chacune de ces divisions. Paris, p. 1-88.</t>
         </is>
